--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.305598666666666</v>
+        <v>5.513176666666666</v>
       </c>
       <c r="H2">
-        <v>9.916795999999998</v>
+        <v>16.53953</v>
       </c>
       <c r="I2">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="J2">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3001253333333333</v>
+        <v>0.2426303333333333</v>
       </c>
       <c r="N2">
-        <v>0.900376</v>
+        <v>0.727891</v>
       </c>
       <c r="O2">
-        <v>0.003361079866847668</v>
+        <v>0.003582566653851659</v>
       </c>
       <c r="P2">
-        <v>0.003361079866847668</v>
+        <v>0.00358256665385166</v>
       </c>
       <c r="Q2">
-        <v>0.9920939016995552</v>
+        <v>1.337663892358889</v>
       </c>
       <c r="R2">
-        <v>8.928845115295998</v>
+        <v>12.03897503123</v>
       </c>
       <c r="S2">
-        <v>0.0002634964145418618</v>
+        <v>0.000583636303008668</v>
       </c>
       <c r="T2">
-        <v>0.0002634964145418618</v>
+        <v>0.000583636303008668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.305598666666666</v>
+        <v>5.513176666666666</v>
       </c>
       <c r="H3">
-        <v>9.916795999999998</v>
+        <v>16.53953</v>
       </c>
       <c r="I3">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="J3">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.902074</v>
       </c>
       <c r="O3">
-        <v>0.003367418456074733</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="P3">
-        <v>0.003367418456074732</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="Q3">
-        <v>0.9939648705448888</v>
+        <v>1.657764442802222</v>
       </c>
       <c r="R3">
-        <v>8.945683834903999</v>
+        <v>14.91987998522</v>
       </c>
       <c r="S3">
-        <v>0.0002639933368408703</v>
+        <v>0.0007232994148852524</v>
       </c>
       <c r="T3">
-        <v>0.0002639933368408703</v>
+        <v>0.0007232994148852523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.305598666666666</v>
+        <v>5.513176666666666</v>
       </c>
       <c r="H4">
-        <v>9.916795999999998</v>
+        <v>16.53953</v>
       </c>
       <c r="I4">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="J4">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.612159000000001</v>
+        <v>2.072156</v>
       </c>
       <c r="N4">
-        <v>13.836477</v>
+        <v>6.216468000000001</v>
       </c>
       <c r="O4">
-        <v>0.05165120380019107</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="P4">
-        <v>0.05165120380019106</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="Q4">
-        <v>15.24594664085467</v>
+        <v>11.42416210889333</v>
       </c>
       <c r="R4">
-        <v>137.213519767692</v>
+        <v>102.81745898004</v>
       </c>
       <c r="S4">
-        <v>0.004049266172566725</v>
+        <v>0.004984477622737043</v>
       </c>
       <c r="T4">
-        <v>0.004049266172566724</v>
+        <v>0.004984477622737043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.305598666666666</v>
+        <v>5.513176666666666</v>
       </c>
       <c r="H5">
-        <v>9.916795999999998</v>
+        <v>16.53953</v>
       </c>
       <c r="I5">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="J5">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.94768066666667</v>
+        <v>0.4813129999999999</v>
       </c>
       <c r="N5">
-        <v>41.843042</v>
+        <v>1.443939</v>
       </c>
       <c r="O5">
-        <v>0.1561989724669042</v>
+        <v>0.00710684389777578</v>
       </c>
       <c r="P5">
-        <v>0.1561989724669042</v>
+        <v>0.007106843897775782</v>
       </c>
       <c r="Q5">
-        <v>46.10543461482577</v>
+        <v>2.653563600963333</v>
       </c>
       <c r="R5">
-        <v>414.9489115334319</v>
+        <v>23.88207240867</v>
       </c>
       <c r="S5">
-        <v>0.01224543028748493</v>
+        <v>0.001157776672235311</v>
       </c>
       <c r="T5">
-        <v>0.01224543028748493</v>
+        <v>0.001157776672235311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.305598666666666</v>
+        <v>5.513176666666666</v>
       </c>
       <c r="H6">
-        <v>9.916795999999998</v>
+        <v>16.53953</v>
       </c>
       <c r="I6">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="J6">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.29420466666666</v>
+        <v>63.71458066666666</v>
       </c>
       <c r="N6">
-        <v>198.882614</v>
+        <v>191.143742</v>
       </c>
       <c r="O6">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676235</v>
       </c>
       <c r="P6">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676236</v>
       </c>
       <c r="Q6">
-        <v>219.1420345538604</v>
+        <v>351.2697394579177</v>
       </c>
       <c r="R6">
-        <v>1972.278310984743</v>
+        <v>3161.427655121259</v>
       </c>
       <c r="S6">
-        <v>0.05820330140265076</v>
+        <v>0.1532625446998557</v>
       </c>
       <c r="T6">
-        <v>0.05820330140265076</v>
+        <v>0.1532625446998557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.305598666666666</v>
+        <v>5.513176666666666</v>
       </c>
       <c r="H7">
-        <v>9.916795999999998</v>
+        <v>16.53953</v>
       </c>
       <c r="I7">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="J7">
-        <v>0.07839635622493944</v>
+        <v>0.1629101031187218</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.839456666666667</v>
+        <v>0.9139096666666666</v>
       </c>
       <c r="N7">
-        <v>11.51837</v>
+        <v>2.741729</v>
       </c>
       <c r="O7">
-        <v>0.04299777149313418</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="P7">
-        <v>0.04299777149313417</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="Q7">
-        <v>12.69170283805778</v>
+        <v>5.038545449707777</v>
       </c>
       <c r="R7">
-        <v>114.22532554252</v>
+        <v>45.34690904737</v>
       </c>
       <c r="S7">
-        <v>0.003370868610854293</v>
+        <v>0.002198368405999871</v>
       </c>
       <c r="T7">
-        <v>0.003370868610854292</v>
+        <v>0.002198368405999871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>16.51874766666667</v>
       </c>
       <c r="H8">
-        <v>49.556243</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I8">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="J8">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3001253333333333</v>
+        <v>0.2426303333333333</v>
       </c>
       <c r="N8">
-        <v>0.900376</v>
+        <v>0.727891</v>
       </c>
       <c r="O8">
-        <v>0.003361079866847668</v>
+        <v>0.003582566653851659</v>
       </c>
       <c r="P8">
-        <v>0.003361079866847668</v>
+        <v>0.00358256665385166</v>
       </c>
       <c r="Q8">
-        <v>4.957694649707554</v>
+        <v>4.007949252612555</v>
       </c>
       <c r="R8">
-        <v>44.619251847368</v>
+        <v>36.07154327351299</v>
       </c>
       <c r="S8">
-        <v>0.001316745080635443</v>
+        <v>0.001748708848166736</v>
       </c>
       <c r="T8">
-        <v>0.001316745080635443</v>
+        <v>0.001748708848166737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>16.51874766666667</v>
       </c>
       <c r="H9">
-        <v>49.556243</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I9">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="J9">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.902074</v>
       </c>
       <c r="O9">
-        <v>0.003367418456074733</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="P9">
-        <v>0.003367418456074732</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="Q9">
         <v>4.967044260886889</v>
@@ -1013,10 +1013,10 @@
         <v>44.703398347982</v>
       </c>
       <c r="S9">
-        <v>0.001319228302252766</v>
+        <v>0.002167171713211403</v>
       </c>
       <c r="T9">
-        <v>0.001319228302252766</v>
+        <v>0.002167171713211402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>16.51874766666667</v>
       </c>
       <c r="H10">
-        <v>49.556243</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I10">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="J10">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.612159000000001</v>
+        <v>2.072156</v>
       </c>
       <c r="N10">
-        <v>13.836477</v>
+        <v>6.216468000000001</v>
       </c>
       <c r="O10">
-        <v>0.05165120380019107</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="P10">
-        <v>0.05165120380019106</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="Q10">
-        <v>76.18709071954568</v>
+        <v>34.22942208996933</v>
       </c>
       <c r="R10">
-        <v>685.6838164759112</v>
+        <v>308.064798809724</v>
       </c>
       <c r="S10">
-        <v>0.02023500517903127</v>
+        <v>0.01493464350561468</v>
       </c>
       <c r="T10">
-        <v>0.02023500517903127</v>
+        <v>0.01493464350561468</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>16.51874766666667</v>
       </c>
       <c r="H11">
-        <v>49.556243</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I11">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="J11">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.94768066666667</v>
+        <v>0.4813129999999999</v>
       </c>
       <c r="N11">
-        <v>41.843042</v>
+        <v>1.443939</v>
       </c>
       <c r="O11">
-        <v>0.1561989724669042</v>
+        <v>0.00710684389777578</v>
       </c>
       <c r="P11">
-        <v>0.1561989724669042</v>
+        <v>0.007106843897775782</v>
       </c>
       <c r="Q11">
-        <v>230.3982174679117</v>
+        <v>7.950687995686332</v>
       </c>
       <c r="R11">
-        <v>2073.583957211206</v>
+        <v>71.55619196117699</v>
       </c>
       <c r="S11">
-        <v>0.0611929013126985</v>
+        <v>0.003468965690622675</v>
       </c>
       <c r="T11">
-        <v>0.0611929013126985</v>
+        <v>0.003468965690622675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>16.51874766666667</v>
       </c>
       <c r="H12">
-        <v>49.556243</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I12">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="J12">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.29420466666666</v>
+        <v>63.71458066666666</v>
       </c>
       <c r="N12">
-        <v>198.882614</v>
+        <v>191.143742</v>
       </c>
       <c r="O12">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676235</v>
       </c>
       <c r="P12">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676236</v>
       </c>
       <c r="Q12">
-        <v>1095.097238651022</v>
+        <v>1052.485080720145</v>
       </c>
       <c r="R12">
-        <v>9855.875147859202</v>
+        <v>9472.365726481305</v>
       </c>
       <c r="S12">
-        <v>0.2908537140132763</v>
+        <v>0.459209899431508</v>
       </c>
       <c r="T12">
-        <v>0.2908537140132763</v>
+        <v>0.459209899431508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>16.51874766666667</v>
       </c>
       <c r="H13">
-        <v>49.556243</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I13">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="J13">
-        <v>0.3917625087172976</v>
+        <v>0.4881162074923796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.839456666666667</v>
+        <v>0.9139096666666666</v>
       </c>
       <c r="N13">
-        <v>11.51837</v>
+        <v>2.741729</v>
       </c>
       <c r="O13">
-        <v>0.04299777149313418</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="P13">
-        <v>0.04299777149313417</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="Q13">
-        <v>63.42301585376778</v>
+        <v>15.09664317379411</v>
       </c>
       <c r="R13">
-        <v>570.8071426839101</v>
+        <v>135.869788564147</v>
       </c>
       <c r="S13">
-        <v>0.01684491482940335</v>
+        <v>0.006586818303256034</v>
       </c>
       <c r="T13">
-        <v>0.01684491482940335</v>
+        <v>0.006586818303256035</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.159864666666666</v>
+        <v>0.3915150000000001</v>
       </c>
       <c r="H14">
-        <v>9.479593999999999</v>
+        <v>1.174545</v>
       </c>
       <c r="I14">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="J14">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3001253333333333</v>
+        <v>0.2426303333333333</v>
       </c>
       <c r="N14">
-        <v>0.900376</v>
+        <v>0.727891</v>
       </c>
       <c r="O14">
-        <v>0.003361079866847668</v>
+        <v>0.003582566653851659</v>
       </c>
       <c r="P14">
-        <v>0.003361079866847668</v>
+        <v>0.00358256665385166</v>
       </c>
       <c r="Q14">
-        <v>0.9483554363715553</v>
+        <v>0.09499341495500001</v>
       </c>
       <c r="R14">
-        <v>8.535198927343998</v>
+        <v>0.8549407345950001</v>
       </c>
       <c r="S14">
-        <v>0.0002518796424079456</v>
+        <v>4.144658896095089E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002518796424079456</v>
+        <v>4.144658896095089E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.159864666666666</v>
+        <v>0.3915150000000001</v>
       </c>
       <c r="H15">
-        <v>9.479593999999999</v>
+        <v>1.174545</v>
       </c>
       <c r="I15">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="J15">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.902074</v>
       </c>
       <c r="O15">
-        <v>0.003367418456074733</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="P15">
-        <v>0.003367418456074732</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="Q15">
-        <v>0.9501439197728888</v>
+        <v>0.11772516737</v>
       </c>
       <c r="R15">
-        <v>8.551295277955999</v>
+        <v>1.05952650633</v>
       </c>
       <c r="S15">
-        <v>0.000252354656882797</v>
+        <v>5.136468274832471E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002523546568827969</v>
+        <v>5.136468274832471E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.159864666666666</v>
+        <v>0.3915150000000001</v>
       </c>
       <c r="H16">
-        <v>9.479593999999999</v>
+        <v>1.174545</v>
       </c>
       <c r="I16">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="J16">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.612159000000001</v>
+        <v>2.072156</v>
       </c>
       <c r="N16">
-        <v>13.836477</v>
+        <v>6.216468000000001</v>
       </c>
       <c r="O16">
-        <v>0.05165120380019107</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="P16">
-        <v>0.05165120380019106</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="Q16">
-        <v>14.57379826114867</v>
+        <v>0.8112801563400002</v>
       </c>
       <c r="R16">
-        <v>131.164184350338</v>
+        <v>7.301521407060002</v>
       </c>
       <c r="S16">
-        <v>0.003870746087130005</v>
+        <v>0.0003539697481970577</v>
       </c>
       <c r="T16">
-        <v>0.003870746087130005</v>
+        <v>0.0003539697481970577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.159864666666666</v>
+        <v>0.3915150000000001</v>
       </c>
       <c r="H17">
-        <v>9.479593999999999</v>
+        <v>1.174545</v>
       </c>
       <c r="I17">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="J17">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.94768066666667</v>
+        <v>0.4813129999999999</v>
       </c>
       <c r="N17">
-        <v>41.843042</v>
+        <v>1.443939</v>
       </c>
       <c r="O17">
-        <v>0.1561989724669042</v>
+        <v>0.00710684389777578</v>
       </c>
       <c r="P17">
-        <v>0.1561989724669042</v>
+        <v>0.007106843897775782</v>
       </c>
       <c r="Q17">
-        <v>44.07278332054977</v>
+        <v>0.188441259195</v>
       </c>
       <c r="R17">
-        <v>396.6550498849479</v>
+        <v>1.695971332755</v>
       </c>
       <c r="S17">
-        <v>0.01170556573722606</v>
+        <v>8.221882976666351E-05</v>
       </c>
       <c r="T17">
-        <v>0.01170556573722606</v>
+        <v>8.221882976666352E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.159864666666666</v>
+        <v>0.3915150000000001</v>
       </c>
       <c r="H18">
-        <v>9.479593999999999</v>
+        <v>1.174545</v>
       </c>
       <c r="I18">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="J18">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>66.29420466666666</v>
+        <v>63.71458066666666</v>
       </c>
       <c r="N18">
-        <v>198.882614</v>
+        <v>191.143742</v>
       </c>
       <c r="O18">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676235</v>
       </c>
       <c r="P18">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676236</v>
       </c>
       <c r="Q18">
-        <v>209.4807149309684</v>
+        <v>24.94521404971</v>
       </c>
       <c r="R18">
-        <v>1885.326434378716</v>
+        <v>224.50692644739</v>
       </c>
       <c r="S18">
-        <v>0.05563729119332088</v>
+        <v>0.01088384951473784</v>
       </c>
       <c r="T18">
-        <v>0.05563729119332088</v>
+        <v>0.01088384951473785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.159864666666666</v>
+        <v>0.3915150000000001</v>
       </c>
       <c r="H19">
-        <v>9.479593999999999</v>
+        <v>1.174545</v>
       </c>
       <c r="I19">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="J19">
-        <v>0.07494009437037916</v>
+        <v>0.01156896520442716</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.839456666666667</v>
+        <v>0.9139096666666666</v>
       </c>
       <c r="N19">
-        <v>11.51837</v>
+        <v>2.741729</v>
       </c>
       <c r="O19">
-        <v>0.04299777149313418</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="P19">
-        <v>0.04299777149313417</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="Q19">
-        <v>12.13216346019778</v>
+        <v>0.357809343145</v>
       </c>
       <c r="R19">
-        <v>109.18947114178</v>
+        <v>3.220284088305</v>
       </c>
       <c r="S19">
-        <v>0.003222257053411474</v>
+        <v>0.0001561158400163196</v>
       </c>
       <c r="T19">
-        <v>0.003222257053411473</v>
+        <v>0.0001561158400163197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.80498133333334</v>
+        <v>10.74560166666667</v>
       </c>
       <c r="H20">
-        <v>35.41494400000001</v>
+        <v>32.236805</v>
       </c>
       <c r="I20">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="J20">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.3001253333333333</v>
+        <v>0.2426303333333333</v>
       </c>
       <c r="N20">
-        <v>0.900376</v>
+        <v>0.727891</v>
       </c>
       <c r="O20">
-        <v>0.003361079866847668</v>
+        <v>0.003582566653851659</v>
       </c>
       <c r="P20">
-        <v>0.003361079866847668</v>
+        <v>0.00358256665385166</v>
       </c>
       <c r="Q20">
-        <v>3.542973957660445</v>
+        <v>2.607208914250556</v>
       </c>
       <c r="R20">
-        <v>31.886765618944</v>
+        <v>23.464880228255</v>
       </c>
       <c r="S20">
-        <v>0.0009410005777270022</v>
+        <v>0.001137551652979942</v>
       </c>
       <c r="T20">
-        <v>0.0009410005777270022</v>
+        <v>0.001137551652979943</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.80498133333334</v>
+        <v>10.74560166666667</v>
       </c>
       <c r="H21">
-        <v>35.41494400000001</v>
+        <v>32.236805</v>
       </c>
       <c r="I21">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="J21">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.902074</v>
       </c>
       <c r="O21">
-        <v>0.003367418456074733</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="P21">
-        <v>0.003367418456074732</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="Q21">
-        <v>3.549655577095112</v>
+        <v>3.23110929261889</v>
       </c>
       <c r="R21">
-        <v>31.94690019385601</v>
+        <v>29.07998363357001</v>
       </c>
       <c r="S21">
-        <v>0.000942775190756426</v>
+        <v>0.001409765706417896</v>
       </c>
       <c r="T21">
-        <v>0.0009427751907564259</v>
+        <v>0.001409765706417896</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.80498133333334</v>
+        <v>10.74560166666667</v>
       </c>
       <c r="H22">
-        <v>35.41494400000001</v>
+        <v>32.236805</v>
       </c>
       <c r="I22">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="J22">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.612159000000001</v>
+        <v>2.072156</v>
       </c>
       <c r="N22">
-        <v>13.836477</v>
+        <v>6.216468000000001</v>
       </c>
       <c r="O22">
-        <v>0.05165120380019107</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="P22">
-        <v>0.05165120380019106</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="Q22">
-        <v>54.44645090136536</v>
+        <v>22.26656296719334</v>
       </c>
       <c r="R22">
-        <v>490.0180581122881</v>
+        <v>200.3990667047401</v>
       </c>
       <c r="S22">
-        <v>0.01446077288900013</v>
+        <v>0.009715126920235196</v>
       </c>
       <c r="T22">
-        <v>0.01446077288900013</v>
+        <v>0.009715126920235198</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.80498133333334</v>
+        <v>10.74560166666667</v>
       </c>
       <c r="H23">
-        <v>35.41494400000001</v>
+        <v>32.236805</v>
       </c>
       <c r="I23">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="J23">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.94768066666667</v>
+        <v>0.4813129999999999</v>
       </c>
       <c r="N23">
-        <v>41.843042</v>
+        <v>1.443939</v>
       </c>
       <c r="O23">
-        <v>0.1561989724669042</v>
+        <v>0.00710684389777578</v>
       </c>
       <c r="P23">
-        <v>0.1561989724669042</v>
+        <v>0.007106843897775782</v>
       </c>
       <c r="Q23">
-        <v>164.6521099132942</v>
+        <v>5.171997774988333</v>
       </c>
       <c r="R23">
-        <v>1481.868989219648</v>
+        <v>46.547979974895</v>
       </c>
       <c r="S23">
-        <v>0.04373098205178193</v>
+        <v>0.002256595007016442</v>
       </c>
       <c r="T23">
-        <v>0.04373098205178193</v>
+        <v>0.002256595007016442</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.80498133333334</v>
+        <v>10.74560166666667</v>
       </c>
       <c r="H24">
-        <v>35.41494400000001</v>
+        <v>32.236805</v>
       </c>
       <c r="I24">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="J24">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.29420466666666</v>
+        <v>63.71458066666666</v>
       </c>
       <c r="N24">
-        <v>198.882614</v>
+        <v>191.143742</v>
       </c>
       <c r="O24">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676235</v>
       </c>
       <c r="P24">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676236</v>
       </c>
       <c r="Q24">
-        <v>782.6018485981796</v>
+        <v>684.6515042027011</v>
       </c>
       <c r="R24">
-        <v>7043.416637383617</v>
+        <v>6161.86353782431</v>
       </c>
       <c r="S24">
-        <v>0.2078561119730605</v>
+        <v>0.2987203848775045</v>
       </c>
       <c r="T24">
-        <v>0.2078561119730605</v>
+        <v>0.2987203848775045</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.80498133333334</v>
+        <v>10.74560166666667</v>
       </c>
       <c r="H25">
-        <v>35.41494400000001</v>
+        <v>32.236805</v>
       </c>
       <c r="I25">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="J25">
-        <v>0.2799697165808677</v>
+        <v>0.3175242117985292</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.839456666666667</v>
+        <v>0.9139096666666666</v>
       </c>
       <c r="N25">
-        <v>11.51837</v>
+        <v>2.741729</v>
       </c>
       <c r="O25">
-        <v>0.04299777149313418</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="P25">
-        <v>0.04299777149313417</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="Q25">
-        <v>45.32471428014224</v>
+        <v>9.820509237316111</v>
       </c>
       <c r="R25">
-        <v>407.9224285212801</v>
+        <v>88.38458313584501</v>
       </c>
       <c r="S25">
-        <v>0.01203807389854169</v>
+        <v>0.004284787634375262</v>
       </c>
       <c r="T25">
-        <v>0.01203807389854169</v>
+        <v>0.004284787634375263</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6239926666666666</v>
+        <v>0.4389196666666667</v>
       </c>
       <c r="H26">
-        <v>1.871978</v>
+        <v>1.316759</v>
       </c>
       <c r="I26">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="J26">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3001253333333333</v>
+        <v>0.2426303333333333</v>
       </c>
       <c r="N26">
-        <v>0.900376</v>
+        <v>0.727891</v>
       </c>
       <c r="O26">
-        <v>0.003361079866847668</v>
+        <v>0.003582566653851659</v>
       </c>
       <c r="P26">
-        <v>0.003361079866847668</v>
+        <v>0.00358256665385166</v>
       </c>
       <c r="Q26">
-        <v>0.1872760070808889</v>
+        <v>0.1064952250298889</v>
       </c>
       <c r="R26">
-        <v>1.685484063728</v>
+        <v>0.9584570252689999</v>
       </c>
       <c r="S26">
-        <v>4.973980417679716E-05</v>
+        <v>4.646494517760726E-05</v>
       </c>
       <c r="T26">
-        <v>4.973980417679717E-05</v>
+        <v>4.646494517760727E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6239926666666666</v>
+        <v>0.4389196666666667</v>
       </c>
       <c r="H27">
-        <v>1.871978</v>
+        <v>1.316759</v>
       </c>
       <c r="I27">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="J27">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.902074</v>
       </c>
       <c r="O27">
-        <v>0.003367418456074733</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="P27">
-        <v>0.003367418456074732</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="Q27">
-        <v>0.1876291869302222</v>
+        <v>0.1319793397962222</v>
       </c>
       <c r="R27">
-        <v>1.688662682372</v>
+        <v>1.187814058166</v>
       </c>
       <c r="S27">
-        <v>4.983360741843422E-05</v>
+        <v>5.758392253255625E-05</v>
       </c>
       <c r="T27">
-        <v>4.983360741843422E-05</v>
+        <v>5.758392253255625E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6239926666666666</v>
+        <v>0.4389196666666667</v>
       </c>
       <c r="H28">
-        <v>1.871978</v>
+        <v>1.316759</v>
       </c>
       <c r="I28">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="J28">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.612159000000001</v>
+        <v>2.072156</v>
       </c>
       <c r="N28">
-        <v>13.836477</v>
+        <v>6.216468000000001</v>
       </c>
       <c r="O28">
-        <v>0.05165120380019107</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="P28">
-        <v>0.05165120380019106</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="Q28">
-        <v>2.877953393500667</v>
+        <v>0.9095100208013334</v>
       </c>
       <c r="R28">
-        <v>25.901580541506</v>
+        <v>8.185590187212002</v>
       </c>
       <c r="S28">
-        <v>0.0007643736133312728</v>
+        <v>0.0003968284328537513</v>
       </c>
       <c r="T28">
-        <v>0.0007643736133312728</v>
+        <v>0.0003968284328537514</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6239926666666666</v>
+        <v>0.4389196666666667</v>
       </c>
       <c r="H29">
-        <v>1.871978</v>
+        <v>1.316759</v>
       </c>
       <c r="I29">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="J29">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.94768066666667</v>
+        <v>0.4813129999999999</v>
       </c>
       <c r="N29">
-        <v>41.843042</v>
+        <v>1.443939</v>
       </c>
       <c r="O29">
-        <v>0.1561989724669042</v>
+        <v>0.00710684389777578</v>
       </c>
       <c r="P29">
-        <v>0.1561989724669042</v>
+        <v>0.007106843897775782</v>
       </c>
       <c r="Q29">
-        <v>8.703250453008444</v>
+        <v>0.2112577415223333</v>
       </c>
       <c r="R29">
-        <v>78.32925407707599</v>
+        <v>1.901319673701</v>
       </c>
       <c r="S29">
-        <v>0.002311550635780495</v>
+        <v>9.2173892072864E-05</v>
       </c>
       <c r="T29">
-        <v>0.002311550635780495</v>
+        <v>9.217389207286402E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6239926666666666</v>
+        <v>0.4389196666666667</v>
       </c>
       <c r="H30">
-        <v>1.871978</v>
+        <v>1.316759</v>
       </c>
       <c r="I30">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="J30">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>66.29420466666666</v>
+        <v>63.71458066666666</v>
       </c>
       <c r="N30">
-        <v>198.882614</v>
+        <v>191.143742</v>
       </c>
       <c r="O30">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676235</v>
       </c>
       <c r="P30">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676236</v>
       </c>
       <c r="Q30">
-        <v>41.3670975544991</v>
+        <v>27.96558250801977</v>
       </c>
       <c r="R30">
-        <v>372.303877990492</v>
+        <v>251.690242572178</v>
       </c>
       <c r="S30">
-        <v>0.0109869457588047</v>
+        <v>0.01220166686093482</v>
       </c>
       <c r="T30">
-        <v>0.0109869457588047</v>
+        <v>0.01220166686093482</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6239926666666666</v>
+        <v>0.4389196666666667</v>
       </c>
       <c r="H31">
-        <v>1.871978</v>
+        <v>1.316759</v>
       </c>
       <c r="I31">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="J31">
-        <v>0.01479875699099283</v>
+        <v>0.01296973641164562</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.839456666666667</v>
+        <v>0.9139096666666666</v>
       </c>
       <c r="N31">
-        <v>11.51837</v>
+        <v>2.741729</v>
       </c>
       <c r="O31">
-        <v>0.04299777149313418</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="P31">
-        <v>0.04299777149313417</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="Q31">
-        <v>2.395792803984444</v>
+        <v>0.4011329262567778</v>
       </c>
       <c r="R31">
-        <v>21.56213523586</v>
+        <v>3.610196336311</v>
       </c>
       <c r="S31">
-        <v>0.0006363135714811314</v>
+        <v>0.0001750183580740193</v>
       </c>
       <c r="T31">
-        <v>0.0006363135714811314</v>
+        <v>0.0001750183580740193</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>6.752023</v>
+        <v>0.2338733333333333</v>
       </c>
       <c r="H32">
-        <v>20.256069</v>
+        <v>0.70162</v>
       </c>
       <c r="I32">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296587</v>
       </c>
       <c r="J32">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296586</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.3001253333333333</v>
+        <v>0.2426303333333333</v>
       </c>
       <c r="N32">
-        <v>0.900376</v>
+        <v>0.727891</v>
       </c>
       <c r="O32">
-        <v>0.003361079866847668</v>
+        <v>0.003582566653851659</v>
       </c>
       <c r="P32">
-        <v>0.003361079866847668</v>
+        <v>0.00358256665385166</v>
       </c>
       <c r="Q32">
-        <v>2.026453153549333</v>
+        <v>0.05674476482444444</v>
       </c>
       <c r="R32">
-        <v>18.238078381944</v>
+        <v>0.51070288342</v>
       </c>
       <c r="S32">
-        <v>0.0005382183473586184</v>
+        <v>2.475831555775416E-05</v>
       </c>
       <c r="T32">
-        <v>0.0005382183473586184</v>
+        <v>2.475831555775416E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>6.752023</v>
+        <v>0.2338733333333333</v>
       </c>
       <c r="H33">
-        <v>20.256069</v>
+        <v>0.70162</v>
       </c>
       <c r="I33">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296587</v>
       </c>
       <c r="J33">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296586</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.902074</v>
       </c>
       <c r="O33">
-        <v>0.003367418456074733</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="P33">
-        <v>0.003367418456074732</v>
+        <v>0.004439868375493834</v>
       </c>
       <c r="Q33">
-        <v>2.030274798567334</v>
+        <v>0.07032368443111113</v>
       </c>
       <c r="R33">
-        <v>18.272473187106</v>
+        <v>0.6329131598800001</v>
       </c>
       <c r="S33">
-        <v>0.000539233361923439</v>
+        <v>3.0682935698402E-05</v>
       </c>
       <c r="T33">
-        <v>0.000539233361923439</v>
+        <v>3.0682935698402E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>6.752023</v>
+        <v>0.2338733333333333</v>
       </c>
       <c r="H34">
-        <v>20.256069</v>
+        <v>0.70162</v>
       </c>
       <c r="I34">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296587</v>
       </c>
       <c r="J34">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296586</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.612159000000001</v>
+        <v>2.072156</v>
       </c>
       <c r="N34">
-        <v>13.836477</v>
+        <v>6.216468000000001</v>
       </c>
       <c r="O34">
-        <v>0.05165120380019107</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="P34">
-        <v>0.05165120380019106</v>
+        <v>0.03059649172958028</v>
       </c>
       <c r="Q34">
-        <v>31.14140364765701</v>
+        <v>0.4846220309066667</v>
       </c>
       <c r="R34">
-        <v>280.2726328289131</v>
+        <v>4.361598278160001</v>
       </c>
       <c r="S34">
-        <v>0.008271039859131669</v>
+        <v>0.0002114454999425476</v>
       </c>
       <c r="T34">
-        <v>0.008271039859131668</v>
+        <v>0.0002114454999425476</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>6.752023</v>
+        <v>0.2338733333333333</v>
       </c>
       <c r="H35">
-        <v>20.256069</v>
+        <v>0.70162</v>
       </c>
       <c r="I35">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296587</v>
       </c>
       <c r="J35">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296586</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>13.94768066666667</v>
+        <v>0.4813129999999999</v>
       </c>
       <c r="N35">
-        <v>41.843042</v>
+        <v>1.443939</v>
       </c>
       <c r="O35">
-        <v>0.1561989724669042</v>
+        <v>0.00710684389777578</v>
       </c>
       <c r="P35">
-        <v>0.1561989724669042</v>
+        <v>0.007106843897775782</v>
       </c>
       <c r="Q35">
-        <v>94.17506065798867</v>
+        <v>0.1125662756866667</v>
       </c>
       <c r="R35">
-        <v>847.575545921898</v>
+        <v>1.01309648118</v>
       </c>
       <c r="S35">
-        <v>0.02501254244193232</v>
+        <v>4.911380606182517E-05</v>
       </c>
       <c r="T35">
-        <v>0.02501254244193232</v>
+        <v>4.911380606182517E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>6.752023</v>
+        <v>0.2338733333333333</v>
       </c>
       <c r="H36">
-        <v>20.256069</v>
+        <v>0.70162</v>
       </c>
       <c r="I36">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296587</v>
       </c>
       <c r="J36">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296586</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>66.29420466666666</v>
+        <v>63.71458066666666</v>
       </c>
       <c r="N36">
-        <v>198.882614</v>
+        <v>191.143742</v>
       </c>
       <c r="O36">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676235</v>
       </c>
       <c r="P36">
-        <v>0.7424235539168481</v>
+        <v>0.9407798642676236</v>
       </c>
       <c r="Q36">
-        <v>447.6199946760406</v>
+        <v>14.90114136244889</v>
       </c>
       <c r="R36">
-        <v>4028.579952084366</v>
+        <v>134.11027226204</v>
       </c>
       <c r="S36">
-        <v>0.118886189575735</v>
+        <v>0.006501518883082697</v>
       </c>
       <c r="T36">
-        <v>0.118886189575735</v>
+        <v>0.006501518883082697</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>6.752023</v>
+        <v>0.2338733333333333</v>
       </c>
       <c r="H37">
-        <v>20.256069</v>
+        <v>0.70162</v>
       </c>
       <c r="I37">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296587</v>
       </c>
       <c r="J37">
-        <v>0.1601325671155233</v>
+        <v>0.006910775974296586</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.839456666666667</v>
+        <v>0.9139096666666666</v>
       </c>
       <c r="N37">
-        <v>11.51837</v>
+        <v>2.741729</v>
       </c>
       <c r="O37">
-        <v>0.04299777149313418</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="P37">
-        <v>0.04299777149313417</v>
+        <v>0.01349436507567487</v>
       </c>
       <c r="Q37">
-        <v>25.92409972083667</v>
+        <v>0.2137391001088889</v>
       </c>
       <c r="R37">
-        <v>233.31689748753</v>
+        <v>1.92365190098</v>
       </c>
       <c r="S37">
-        <v>0.006885343529442244</v>
+        <v>9.325653395336082E-05</v>
       </c>
       <c r="T37">
-        <v>0.006885343529442243</v>
+        <v>9.325653395336083E-05</v>
       </c>
     </row>
   </sheetData>
